--- a/feedback_forms/processed_versions/xl_workbooks/energy_operator_feedback_v003_populated_02.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/energy_operator_feedback_v003_populated_02.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686448EB-3174-43D3-9C0D-125C94D54B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4Zh4mO2hYhXEBohcHyVO08Hlm+e8tG+cOhw6wdbHtxdjM6ODx7YF6K7msS3VAHSQbxPAIyl5gchaFHxzOW/+xA==" workbookSaltValue="v44hdFPP69Yjt0p9E6O9pQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D9C56-DC65-4C9A-BDDB-3057E8E8A74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="TEnSiyQRyHMLKh0iio57k8WHgCSKlta9Y2oQS7Ap8AKYcD8941iom+0NU7naEtnZrWUNYZK8U2Da4f/dkytFfA==" workbookSaltValue="9GM30+WE6ZO6G9hkff5wPg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4673" yWindow="1413" windowWidth="19200" windowHeight="11387" tabRatio="704" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="4027" yWindow="1453" windowWidth="19200" windowHeight="11387" tabRatio="704" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="jinja_repair_timestamp">'Feedback Form'!$D$50</definedName>
     <definedName name="jinja_venting_description_2">'Feedback Form'!$D$43</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2598,7 +2598,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
@@ -3652,7 +3654,7 @@
       <c r="F56" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LIanA4X5OmzElekoSqbpDyISys+RHIXlc9ey+5IO+FPRvSege3ajw1euBN6nMTZvyZwlDOC+V4PizZIeX5Twbg==" saltValue="MD4HBT78Qff1GMyt64nQ1A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JqMCS/D9pf/nxSDkjI0g100D+/PZKq/Ix4zPQvf2TIFAP9L3AmObekEhJu5ua4zKP5UyLuO8Hpupxqde1yVSgQ==" saltValue="R0ruMyG0oek+DxYqV4k50A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3831,7 +3833,7 @@
       <c r="D26" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M1K6lnM8GqQUqvgT4McNMbrfhavOiigqGlzP4bW5CwBf8cMd/Fzd7C9jngslMQkz8oSDsOxm5n1i2VoS1+x/BQ==" saltValue="cS8U1xSL8mN9vfVNGIP8rw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="voYixNhxFWjm9WJ7M9F47ITK0jfM1q0bvLGLOah14yvYhuVIeuP2PPWYXWL3IiyiYHGWuQGWVAjmYR6ffKW0rA==" saltValue="UjbiaUO7hgk8FunmfDbgjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4330,7 +4332,7 @@
       <c r="G60" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jhOaRvqc29kDqNABxv01CNHj79ZQRpjXiqU3b4360KAvUTvGtiD5s6p79G7WFtZQo3YgYqZnS3KE852JLhwWNg==" saltValue="xV8MeD6fpyUR8OkTfWMyIg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eNMqldRoLW8QkF4o7Y+WoEIJPmMrNozquaLROb2QwYcArk+UFHIUCy9Osmjskp9MVyC8P3Org8FQ1LGQaOgMJg==" saltValue="aBpAuGyPIoawkOA8qp4Ryg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$14</formula>
@@ -5502,7 +5504,7 @@
       <c r="Q89" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xih585rf/ZB1u+qtsjfVz3gQLa3Ys/dLaT8N7U3Zjp5Xx/nWcsiq0euuOCiVzKICngM2kFw9KK5MR7+c4jy9Tg==" saltValue="A0vGlC4Rzy71ygw9yKOuJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SwYdY1/RKTYHmx2zLQFkpA8qvcVmhg7N1ItU2pHJPZ4i0wKZqnH1r/wipZhOzpFmiFo3NDll9tz7CeYWZF7Pag==" saltValue="sYrpIDsiV2bAm0qvGBj8vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
@@ -5587,7 +5589,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jmGDGblVgqSGebM902ztDLLPu//rZ1BIhd6wZmQFlMGjk+hj4IuYhdoawiwu3CW9s4gA3ncaw1NqIEpbnt9QNQ==" saltValue="wbeOhrrPkTQ+HKAebFngFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XEzUPOf8Jd2tAIyoHbONlN4i6pYA8kEX60fMMFMcn6o4SSJl5e0aKb1skm8YFvD1Ix/JE4tN/5dAKigglPmDxw==" saltValue="BcD1PYLfqNvgWjuEByuU+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5682,7 +5684,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gQPBRV1a69+zlsvzrcKuv/HhPhp7JCsHof36nOPYlN3lq7JoBBZZxfGuUpbYPtkQAljcBpkzx6S5+Nhyix7YVQ==" saltValue="FcnpfNq3XhMc/QeWsGI8Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yWHWuKh3R+5rCFz2JDwH09wyuR1ODVK8JeG9Vtp+TdsqHg+4rVvplJvurR6bgzPTBMI8v62Yk9pOULXXOj4Xcg==" saltValue="x/TattjFjtiL97dv/2/aww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6210,7 +6212,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dWvNNbA4gyUI8/D28lg5C9XkUVrqApFJOgl7/uYNAISUCoi+e2GTK6hpwp8Fj/AWZpRxw9nnWJzb/UWO+vxX1g==" saltValue="DHQgy0C5hlCWM4PpOY/aKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dl6Ih0Mj0COKg/3BPrLOUTUmkp2wcFfpX+OYes1CNgHMY7RF9YpB9E8j/Q2FaIQUfjp5EeHtvxYvRSsaV299sA==" saltValue="bTc7xGt1o1+PdybYFBZKJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:R35">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -6220,15 +6222,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
@@ -6237,6 +6230,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6475,20 +6477,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
     <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
